--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -49,12 +49,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFB6B6"/>
         <bgColor rgb="00FFB6B6"/>
       </patternFill>
@@ -63,6 +57,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF8282"/>
         <bgColor rgb="00FF8282"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.5</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="3">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.83</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
@@ -726,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>-0.52</v>
+        <v>-0.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -756,14 +756,14 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.65</v>
+      <c r="E3" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -781,14 +781,14 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.65</v>
+      <c r="E4" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>-0.06</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -822,22 +822,22 @@
           <t>ambience_satisfaction</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
+      <c r="B6" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -847,19 +847,19 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.65</v>
+      <c r="B7" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.58</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F7" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="G7" t="n">
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>相関係数-0.5以下-0.7より大きいで普通の負の相関</t>
         </is>
@@ -888,14 +888,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="Average" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CorrelationMatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="料理の満足度_vs_Overall_Satisfaction" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="価格の満足度_vs_Overall_Satisfaction" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="店の雰囲気_vs_Overall_Satisfaction" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="接客態度_vs_Overall_Satisfaction" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DemographicAnalysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="料理の満足度_vs_Overall_Satisfaction" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="価格の満足度_vs_Overall_Satisfaction" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="店の雰囲気_vs_Overall_Satisfaction" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="接客態度_vs_Overall_Satisfaction" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -914,21 +915,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>全体の割合</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>66.67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -987,4 +1105,23 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,120 +929,313 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>人数</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>人数</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>全体の割合</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>10代</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>20代</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>30代</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>40代</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>50代</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>66.67</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60代</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>70代</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80代</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10代</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20代</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30代</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40代</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>50代</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>60代</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>70代</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>80代</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -44,6 +44,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E0F8FF"/>
         <bgColor rgb="00E0F8FF"/>
       </patternFill>
@@ -70,12 +76,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="006495ED"/>
         <bgColor rgb="006495ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEBEB"/>
-        <bgColor rgb="00FFEBEB"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83</v>
+        <v>38.74</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="7">
@@ -726,20 +726,20 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+      <c r="C2" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.34</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.16</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="3">
@@ -748,8 +748,8 @@
           <t>overall_satisfaction</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.24</v>
+      <c r="B3" s="2" t="n">
+        <v>0.34</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -757,14 +757,14 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.58</v>
+      <c r="E3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -773,8 +773,8 @@
           <t>food_satisfaction</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.24</v>
+      <c r="B4" s="2" t="n">
+        <v>0.34</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -782,14 +782,14 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.58</v>
+      <c r="E4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -799,19 +799,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0.6</v>
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.55</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G5" t="n">
         <v>0.18</v>
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.6</v>
+        <v>-0.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0.96</v>
+      <c r="G6" s="5" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
@@ -848,62 +848,62 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.58</v>
+      <c r="B7" s="3" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.54</v>
       </c>
       <c r="E7" t="n">
         <v>0.18</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>0.96</v>
+      <c r="F7" s="5" t="n">
+        <v>0.91</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>相関係数-0.3以下-0.5より大きいで弱い負の相関</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>相関係数-0.5以下-0.7より大きいで普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>相関係数-0.7以下で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -44,14 +44,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFEBEB"/>
-        <bgColor rgb="00FFEBEB"/>
+        <fgColor rgb="00E0F8FF"/>
+        <bgColor rgb="00E0F8FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0F8FF"/>
-        <bgColor rgb="00E0F8FF"/>
+        <fgColor rgb="00FF8282"/>
+        <bgColor rgb="00FF8282"/>
       </patternFill>
     </fill>
     <fill>
@@ -62,8 +62,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF8282"/>
-        <bgColor rgb="00FF8282"/>
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
       </patternFill>
     </fill>
     <fill>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.74</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
     </row>
   </sheetData>
@@ -726,20 +726,20 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.34</v>
+      <c r="C2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>-0.47</v>
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -748,23 +748,23 @@
           <t>overall_satisfaction</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.34</v>
+      <c r="B3" t="n">
+        <v>0.09</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" s="3" t="n">
+        <v>0.92</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -773,23 +773,23 @@
           <t>food_satisfaction</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="B4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -813,8 +813,8 @@
       <c r="F5" t="n">
         <v>-0.02</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.18</v>
+      <c r="G5" s="5" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.16</v>
+        <v>0.01</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
         <v>-0.02</v>
@@ -838,8 +838,8 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0.91</v>
+      <c r="G6" s="4" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -848,27 +848,27 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.54</v>
+      <c r="B7" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.72</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.91</v>
+        <v>0.59</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.53</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>相関係数-0.3以下-0.5より大きいで弱い負の相関</t>
         </is>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
@@ -903,7 +903,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>
@@ -953,7 +953,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -971,7 +971,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1007,7 +1007,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1025,7 +1025,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1115,7 +1115,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1151,7 +1151,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1169,7 +1169,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1223,7 +1223,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>女性</t>
+          <t>男性</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -50,6 +50,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006495ED"/>
+        <bgColor rgb="006495ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF8282"/>
         <bgColor rgb="00FF8282"/>
       </patternFill>
@@ -64,18 +76,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFEBEB"/>
         <bgColor rgb="00FFEBEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006495ED"/>
-        <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
   </fills>
@@ -738,7 +738,7 @@
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -754,16 +754,16 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" t="n">
         <v>0.92</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" t="n">
         <v>0.65</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" t="n">
         <v>0.53</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -776,19 +776,19 @@
       <c r="B4" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" t="n">
         <v>0.92</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" t="n">
         <v>0.54</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -801,10 +801,10 @@
       <c r="B5" t="n">
         <v>-0.3</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" t="n">
         <v>0.65</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" t="n">
         <v>0.54</v>
       </c>
       <c r="E5" t="n">
@@ -813,7 +813,7 @@
       <c r="F5" t="n">
         <v>-0.02</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -826,10 +826,10 @@
       <c r="B6" t="n">
         <v>0.01</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" t="n">
         <v>0.53</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" t="n">
@@ -838,7 +838,7 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -848,19 +848,19 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>-0.5</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" t="n">
         <v>0.72</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" t="n">
         <v>0.46</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" t="n">
         <v>0.53</v>
       </c>
       <c r="G7" t="n">
@@ -875,35 +875,35 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>相関係数-0.5以下-0.7より大きいで普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>相関係数-0.7以下で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="3">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="4">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="5">
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="10">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="12">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="13">
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="14">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="16">

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>54.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -50,20 +50,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
+        <fgColor rgb="00FF8282"/>
+        <bgColor rgb="00FF8282"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006495ED"/>
-        <bgColor rgb="006495ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8282"/>
-        <bgColor rgb="00FF8282"/>
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,8 +68,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFEBEB"/>
-        <bgColor rgb="00FFEBEB"/>
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006495ED"/>
+        <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.27</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
@@ -727,19 +727,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.3</v>
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-0.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.5</v>
+        <v>-0.08</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="3">
@@ -749,21 +749,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -774,21 +774,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.92</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -798,23 +798,23 @@
           <t>price_satisfaction</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
+      <c r="B5" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
+        <v>-0.08</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.53</v>
+      <c r="G6" s="5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -848,20 +848,20 @@
           <t>service_satisfaction</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5" t="n">
         <v>0.59</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.53</v>
+      <c r="E7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -875,35 +875,35 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>相関係数-0.5以下-0.7より大きいで普通の負の相関</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>相関係数-0.7以下で強い負の相関</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>相関係数0.7以上で強い正の相関</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>相関係数0.5以上0.7未満で普通の正の相関</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>相関係数0.3以上0.5未満で弱い正の相関</t>
         </is>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="3">
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9.09</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="12">
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>13.64</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="13">
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>54.55</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="14">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4.55</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="16">

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -35,7 +35,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -78,6 +78,12 @@
         <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -97,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -108,6 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1159,10 +1166,10 @@
           <t>40代</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="8" t="n">
         <v>52.17</v>
       </c>
     </row>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -35,7 +35,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -78,12 +78,6 @@
         <bgColor rgb="006495ED"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -103,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -114,7 +108,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1022,10 +1015,10 @@
           <t>40代</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1040,10 +1033,10 @@
           <t>50代</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,10 +1051,10 @@
           <t>60代</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,10 +1069,10 @@
           <t>70代</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1112,10 +1105,10 @@
           <t>10代</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1166,10 +1159,10 @@
           <t>40代</t>
         </is>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="3" t="n">
         <v>52.17</v>
       </c>
     </row>
@@ -1184,10 +1177,10 @@
           <t>50代</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1220,10 +1213,10 @@
           <t>70代</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1238,10 +1231,10 @@
           <t>80代</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/media/data_analytics.xlsx
+++ b/media/data_analytics.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,6 +1236,20 @@
       </c>
       <c r="D17" s="6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>最も人数が多い客層</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>最も人数が少ない客層</t>
+        </is>
       </c>
     </row>
   </sheetData>
